--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adam15-Itga9.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adam15-Itga9.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H2">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I2">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J2">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N2">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O2">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P2">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q2">
-        <v>42.94839798714277</v>
+        <v>86.20856396145533</v>
       </c>
       <c r="R2">
-        <v>42.94839798714277</v>
+        <v>775.8770756530979</v>
       </c>
       <c r="S2">
-        <v>0.02042349824411728</v>
+        <v>0.0307178526494481</v>
       </c>
       <c r="T2">
-        <v>0.02042349824411728</v>
+        <v>0.0307178526494481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H3">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I3">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J3">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N3">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O3">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P3">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q3">
-        <v>99.9278933995175</v>
+        <v>119.8399461049826</v>
       </c>
       <c r="R3">
-        <v>99.9278933995175</v>
+        <v>1078.559514944844</v>
       </c>
       <c r="S3">
-        <v>0.0475192847936808</v>
+        <v>0.04270139342092011</v>
       </c>
       <c r="T3">
-        <v>0.0475192847936808</v>
+        <v>0.04270139342092012</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H4">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I4">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J4">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N4">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O4">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P4">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q4">
-        <v>141.049908382579</v>
+        <v>280.6142110210949</v>
       </c>
       <c r="R4">
-        <v>141.049908382579</v>
+        <v>2525.527899189855</v>
       </c>
       <c r="S4">
-        <v>0.06707427264334505</v>
+        <v>0.09998851145857335</v>
       </c>
       <c r="T4">
-        <v>0.06707427264334505</v>
+        <v>0.09998851145857336</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H5">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I5">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J5">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N5">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O5">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P5">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q5">
-        <v>331.2551270434568</v>
+        <v>392.0638566852146</v>
       </c>
       <c r="R5">
-        <v>331.2551270434568</v>
+        <v>3528.574710166932</v>
       </c>
       <c r="S5">
-        <v>0.1575236521639807</v>
+        <v>0.1397002713583706</v>
       </c>
       <c r="T5">
-        <v>0.1575236521639807</v>
+        <v>0.1397002713583707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H6">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I6">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J6">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N6">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O6">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P6">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q6">
-        <v>17.72438159499305</v>
+        <v>20.997307137749</v>
       </c>
       <c r="R6">
-        <v>17.72438159499305</v>
+        <v>188.975764239741</v>
       </c>
       <c r="S6">
-        <v>0.008428576928335565</v>
+        <v>0.007481764653694507</v>
       </c>
       <c r="T6">
-        <v>0.008428576928335565</v>
+        <v>0.007481764653694508</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H7">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I7">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J7">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N7">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O7">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P7">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q7">
-        <v>9.481581530749095</v>
+        <v>12.22093704684733</v>
       </c>
       <c r="R7">
-        <v>9.481581530749095</v>
+        <v>109.988433421626</v>
       </c>
       <c r="S7">
-        <v>0.004508830895221751</v>
+        <v>0.004354566718117276</v>
       </c>
       <c r="T7">
-        <v>0.004508830895221751</v>
+        <v>0.004354566718117276</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H8">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I8">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J8">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N8">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O8">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P8">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q8">
-        <v>16.45288932228404</v>
+        <v>28.16863860939489</v>
       </c>
       <c r="R8">
-        <v>16.45288932228404</v>
+        <v>253.517747484554</v>
       </c>
       <c r="S8">
-        <v>0.007823936908774065</v>
+        <v>0.01003705490936866</v>
       </c>
       <c r="T8">
-        <v>0.007823936908774065</v>
+        <v>0.01003705490936865</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H9">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I9">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J9">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N9">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O9">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P9">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q9">
-        <v>38.28088234637868</v>
+        <v>39.15768895431244</v>
       </c>
       <c r="R9">
-        <v>38.28088234637868</v>
+        <v>352.419200588812</v>
       </c>
       <c r="S9">
-        <v>0.01820392773715512</v>
+        <v>0.01395267551294895</v>
       </c>
       <c r="T9">
-        <v>0.01820392773715512</v>
+        <v>0.01395267551294895</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H10">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I10">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J10">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N10">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O10">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P10">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q10">
-        <v>54.03411163861351</v>
+        <v>91.690661990935</v>
       </c>
       <c r="R10">
-        <v>54.03411163861351</v>
+        <v>825.2159579184149</v>
       </c>
       <c r="S10">
-        <v>0.02569515129537611</v>
+        <v>0.03267123490918135</v>
       </c>
       <c r="T10">
-        <v>0.02569515129537611</v>
+        <v>0.03267123490918135</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H11">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I11">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J11">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N11">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O11">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P11">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q11">
-        <v>126.898887923985</v>
+        <v>128.1068212168484</v>
       </c>
       <c r="R11">
-        <v>126.898887923985</v>
+        <v>1152.961390951636</v>
       </c>
       <c r="S11">
-        <v>0.06034495664941478</v>
+        <v>0.04564704800427707</v>
       </c>
       <c r="T11">
-        <v>0.06034495664941478</v>
+        <v>0.04564704800427707</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H12">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I12">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J12">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N12">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O12">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P12">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q12">
-        <v>6.789945663995401</v>
+        <v>6.860867753210333</v>
       </c>
       <c r="R12">
-        <v>6.789945663995401</v>
+        <v>61.74780977889299</v>
       </c>
       <c r="S12">
-        <v>0.003228861839917197</v>
+        <v>0.002444665761799418</v>
       </c>
       <c r="T12">
-        <v>0.003228861839917197</v>
+        <v>0.002444665761799418</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H13">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I13">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J13">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N13">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O13">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P13">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q13">
-        <v>3.632252163918385</v>
+        <v>3.993189809944222</v>
       </c>
       <c r="R13">
-        <v>3.632252163918385</v>
+        <v>35.938708289498</v>
       </c>
       <c r="S13">
-        <v>0.001727265722791015</v>
+        <v>0.001422854186945832</v>
       </c>
       <c r="T13">
-        <v>0.001727265722791015</v>
+        <v>0.001422854186945832</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H14">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I14">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J14">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N14">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O14">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P14">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q14">
-        <v>33.13963666154451</v>
+        <v>66.49734976607867</v>
       </c>
       <c r="R14">
-        <v>33.13963666154451</v>
+        <v>598.476147894708</v>
       </c>
       <c r="S14">
-        <v>0.01575908166284473</v>
+        <v>0.02369434888866155</v>
       </c>
       <c r="T14">
-        <v>0.01575908166284473</v>
+        <v>0.02369434888866154</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H15">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I15">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J15">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N15">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O15">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P15">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q15">
-        <v>77.10588135568946</v>
+        <v>92.43906226826934</v>
       </c>
       <c r="R15">
-        <v>77.10588135568946</v>
+        <v>831.9515604144241</v>
       </c>
       <c r="S15">
-        <v>0.03666660239458687</v>
+        <v>0.03293790504478691</v>
       </c>
       <c r="T15">
-        <v>0.03666660239458687</v>
+        <v>0.03293790504478691</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H16">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I16">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J16">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N16">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O16">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P16">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q16">
-        <v>108.836253132006</v>
+        <v>216.45298891587</v>
       </c>
       <c r="R16">
-        <v>108.836253132006</v>
+        <v>1948.07690024283</v>
       </c>
       <c r="S16">
-        <v>0.05175552823654243</v>
+        <v>0.0771265720424613</v>
       </c>
       <c r="T16">
-        <v>0.05175552823654243</v>
+        <v>0.0771265720424613</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H17">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I17">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J17">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N17">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O17">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P17">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q17">
-        <v>255.6014907885564</v>
+        <v>302.4201565437414</v>
       </c>
       <c r="R17">
-        <v>255.6014907885564</v>
+        <v>2721.781408893672</v>
       </c>
       <c r="S17">
-        <v>0.1215476442189207</v>
+        <v>0.1077584103023359</v>
       </c>
       <c r="T17">
-        <v>0.1215476442189207</v>
+        <v>0.1077584103023359</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H18">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I18">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J18">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N18">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O18">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P18">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q18">
-        <v>13.67640223238308</v>
+        <v>16.196363942554</v>
       </c>
       <c r="R18">
-        <v>13.67640223238308</v>
+        <v>145.767275482986</v>
       </c>
       <c r="S18">
-        <v>0.006503618064229917</v>
+        <v>0.005771091619930625</v>
       </c>
       <c r="T18">
-        <v>0.006503618064229917</v>
+        <v>0.005771091619930624</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H19">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I19">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J19">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N19">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O19">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P19">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q19">
-        <v>7.316132420117305</v>
+        <v>9.426672802910668</v>
       </c>
       <c r="R19">
-        <v>7.316132420117305</v>
+        <v>84.840055226196</v>
       </c>
       <c r="S19">
-        <v>0.00347908244868008</v>
+        <v>0.003358913927203776</v>
       </c>
       <c r="T19">
-        <v>0.00347908244868008</v>
+        <v>0.003358913927203775</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H20">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I20">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J20">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N20">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O20">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P20">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q20">
-        <v>22.73960038849915</v>
+        <v>40.27002641737311</v>
       </c>
       <c r="R20">
-        <v>22.73960038849915</v>
+        <v>362.430237756358</v>
       </c>
       <c r="S20">
-        <v>0.01081349271154357</v>
+        <v>0.01434902381892509</v>
       </c>
       <c r="T20">
-        <v>0.01081349271154357</v>
+        <v>0.01434902381892509</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H21">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I21">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J21">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N21">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O21">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P21">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q21">
-        <v>52.90815187681324</v>
+        <v>55.98002766479156</v>
       </c>
       <c r="R21">
-        <v>52.90815187681324</v>
+        <v>503.820248983124</v>
       </c>
       <c r="S21">
-        <v>0.02515971718617002</v>
+        <v>0.01994681458663362</v>
       </c>
       <c r="T21">
-        <v>0.02515971718617002</v>
+        <v>0.01994681458663363</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H22">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I22">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J22">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N22">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O22">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P22">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q22">
-        <v>74.68074949883929</v>
+        <v>131.081428243745</v>
       </c>
       <c r="R22">
-        <v>74.68074949883929</v>
+        <v>1179.732854193705</v>
       </c>
       <c r="S22">
-        <v>0.03551336552100291</v>
+        <v>0.0467069605714679</v>
       </c>
       <c r="T22">
-        <v>0.03551336552100291</v>
+        <v>0.04670696057146791</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H23">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I23">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J23">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N23">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O23">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P23">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q23">
-        <v>175.3874316305051</v>
+        <v>183.1421513188635</v>
       </c>
       <c r="R23">
-        <v>175.3874316305051</v>
+        <v>1648.279361869772</v>
       </c>
       <c r="S23">
-        <v>0.08340299219119167</v>
+        <v>0.0652572477675315</v>
       </c>
       <c r="T23">
-        <v>0.08340299219119167</v>
+        <v>0.06525724776753151</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H24">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I24">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J24">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N24">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O24">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P24">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q24">
-        <v>9.384409512179444</v>
+        <v>9.808330800045667</v>
       </c>
       <c r="R24">
-        <v>9.384409512179444</v>
+        <v>88.274977200411</v>
       </c>
       <c r="S24">
-        <v>0.004462622127406273</v>
+        <v>0.003494906380618475</v>
       </c>
       <c r="T24">
-        <v>0.004462622127406273</v>
+        <v>0.003494906380618476</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H25">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I25">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J25">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N25">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O25">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P25">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q25">
-        <v>5.020149415695404</v>
+        <v>5.708684092471778</v>
       </c>
       <c r="R25">
-        <v>5.020149415695404</v>
+        <v>51.37815683224601</v>
       </c>
       <c r="S25">
-        <v>0.002387260470282385</v>
+        <v>0.002034119450745066</v>
       </c>
       <c r="T25">
-        <v>0.002387260470282385</v>
+        <v>0.002034119450745066</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H26">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I26">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J26">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N26">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O26">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P26">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q26">
-        <v>21.50168406283461</v>
+        <v>37.294767903764</v>
       </c>
       <c r="R26">
-        <v>21.50168406283461</v>
+        <v>335.652911133876</v>
       </c>
       <c r="S26">
-        <v>0.01022481925482599</v>
+        <v>0.01328887911385932</v>
       </c>
       <c r="T26">
-        <v>0.01022481925482599</v>
+        <v>0.01328887911385932</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H27">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I27">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J27">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N27">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O27">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P27">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q27">
-        <v>50.02789611813372</v>
+        <v>51.84407175119199</v>
       </c>
       <c r="R27">
-        <v>50.02789611813372</v>
+        <v>466.5966457607279</v>
       </c>
       <c r="S27">
-        <v>0.02379005263086786</v>
+        <v>0.01847308995325069</v>
       </c>
       <c r="T27">
-        <v>0.02379005263086786</v>
+        <v>0.0184730899532507</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H28">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I28">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J28">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N28">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O28">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P28">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q28">
-        <v>70.61521987483438</v>
+        <v>121.39677764739</v>
       </c>
       <c r="R28">
-        <v>70.61521987483438</v>
+        <v>1092.57099882651</v>
       </c>
       <c r="S28">
-        <v>0.03358006088034721</v>
+        <v>0.04325612394561673</v>
       </c>
       <c r="T28">
-        <v>0.03358006088034721</v>
+        <v>0.04325612394561674</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H29">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I29">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J29">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N29">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O29">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P29">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q29">
-        <v>165.8395521065719</v>
+        <v>169.611113636776</v>
       </c>
       <c r="R29">
-        <v>165.8395521065719</v>
+        <v>1526.500022730984</v>
       </c>
       <c r="S29">
-        <v>0.07886263423068125</v>
+        <v>0.06043586573061073</v>
       </c>
       <c r="T29">
-        <v>0.07886263423068125</v>
+        <v>0.06043586573061074</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H30">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I30">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J30">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N30">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O30">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P30">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q30">
-        <v>8.873533615357438</v>
+        <v>9.083664781337999</v>
       </c>
       <c r="R30">
-        <v>8.873533615357438</v>
+        <v>81.752983032042</v>
       </c>
       <c r="S30">
-        <v>0.004219682379459689</v>
+        <v>0.003236693240765257</v>
       </c>
       <c r="T30">
-        <v>0.004219682379459689</v>
+        <v>0.003236693240765258</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H31">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I31">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J31">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N31">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O31">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P31">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q31">
-        <v>4.746858556894399</v>
+        <v>5.286911065268</v>
       </c>
       <c r="R31">
-        <v>4.746858556894399</v>
+        <v>47.582199587412</v>
       </c>
       <c r="S31">
-        <v>0.002257300899345034</v>
+        <v>0.001883833201841186</v>
       </c>
       <c r="T31">
-        <v>0.002257300899345034</v>
+        <v>0.001883833201841186</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H32">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I32">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J32">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N32">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O32">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P32">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q32">
-        <v>3.811817087935454</v>
+        <v>6.863192806564444</v>
       </c>
       <c r="R32">
-        <v>3.811817087935454</v>
+        <v>61.76873525908</v>
       </c>
       <c r="S32">
-        <v>0.001812655261918075</v>
+        <v>0.002445494225272788</v>
       </c>
       <c r="T32">
-        <v>0.001812655261918075</v>
+        <v>0.002445494225272787</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H33">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I33">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J33">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N33">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O33">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P33">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q33">
-        <v>8.868942020508038</v>
+        <v>9.540637475582221</v>
       </c>
       <c r="R33">
-        <v>8.868942020508038</v>
+        <v>85.86573728024</v>
       </c>
       <c r="S33">
-        <v>0.004217498912002474</v>
+        <v>0.003399521842026862</v>
       </c>
       <c r="T33">
-        <v>0.004217498912002474</v>
+        <v>0.003399521842026862</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H34">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I34">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J34">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N34">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O34">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P34">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q34">
-        <v>12.51866137557448</v>
+        <v>22.3401173387</v>
       </c>
       <c r="R34">
-        <v>12.51866137557448</v>
+        <v>201.0610560483</v>
       </c>
       <c r="S34">
-        <v>0.005953070908472168</v>
+        <v>0.007960235051454885</v>
       </c>
       <c r="T34">
-        <v>0.005953070908472168</v>
+        <v>0.007960235051454885</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H35">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I35">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J35">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N35">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O35">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P35">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q35">
-        <v>29.40002451566369</v>
+        <v>31.21279043830222</v>
       </c>
       <c r="R35">
-        <v>29.40002451566369</v>
+        <v>280.91511394472</v>
       </c>
       <c r="S35">
-        <v>0.01398076243152111</v>
+        <v>0.01112174769423783</v>
       </c>
       <c r="T35">
-        <v>0.01398076243152111</v>
+        <v>0.01112174769423783</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H36">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I36">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J36">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N36">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O36">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P36">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q36">
-        <v>1.573099435678808</v>
+        <v>1.671627048206667</v>
       </c>
       <c r="R36">
-        <v>1.573099435678808</v>
+        <v>15.04464343386</v>
       </c>
       <c r="S36">
-        <v>0.0007480650051726277</v>
+        <v>0.000595634482144985</v>
       </c>
       <c r="T36">
-        <v>0.0007480650051726277</v>
+        <v>0.000595634482144985</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H37">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I37">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J37">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N37">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O37">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P37">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q37">
-        <v>0.8415227620453329</v>
+        <v>0.9729270895511111</v>
       </c>
       <c r="R37">
-        <v>0.8415227620453329</v>
+        <v>8.75634380596</v>
       </c>
       <c r="S37">
-        <v>0.0004001741498754555</v>
+        <v>0.000346673573971721</v>
       </c>
       <c r="T37">
-        <v>0.0004001741498754555</v>
+        <v>0.000346673573971721</v>
       </c>
     </row>
   </sheetData>
